--- a/paper/comparison/655-optimizers-medium_scheds.xlsx
+++ b/paper/comparison/655-optimizers-medium_scheds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,42 +441,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>gdpa-pd-lr3-d1.5-b10.9-b20.999-e0.1-g0.9</t>
+          <t>gdpa-pd</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>gdpa-pd-lr3-d1.5-b10.9-b20.999-e0.1-g1.5</t>
+          <t>gdpa-adam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gdpa-pd-lr3-d1.5-b10.9-b20.999-e0.1-g5</t>
+          <t>gdpa-noise</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>gdpa-adam-lr3-d1.5-b10.9-b20.999-e0.1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>gdpa-noise-lr3-d1.5-g0.9</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>gdpa-noise-lr3-d1.5-g1.5</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>gdpa-noise-lr3-d1.5-g5</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gdpa-direct-lr3-d1.5</t>
+          <t>gdpa-direct</t>
         </is>
       </c>
     </row>
@@ -499,18 +479,6 @@
       <c r="F2" t="n">
         <v>50</v>
       </c>
-      <c r="G2" t="n">
-        <v>50</v>
-      </c>
-      <c r="H2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I2" t="n">
-        <v>50</v>
-      </c>
-      <c r="J2" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -531,18 +499,6 @@
       <c r="F3" t="n">
         <v>50</v>
       </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>50</v>
-      </c>
-      <c r="J3" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -563,18 +519,6 @@
       <c r="F4" t="n">
         <v>50</v>
       </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -595,18 +539,6 @@
       <c r="F5" t="n">
         <v>50</v>
       </c>
-      <c r="G5" t="n">
-        <v>50</v>
-      </c>
-      <c r="H5" t="n">
-        <v>50</v>
-      </c>
-      <c r="I5" t="n">
-        <v>50</v>
-      </c>
-      <c r="J5" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -627,18 +559,6 @@
       <c r="F6" t="n">
         <v>50</v>
       </c>
-      <c r="G6" t="n">
-        <v>50</v>
-      </c>
-      <c r="H6" t="n">
-        <v>50</v>
-      </c>
-      <c r="I6" t="n">
-        <v>50</v>
-      </c>
-      <c r="J6" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -659,18 +579,6 @@
       <c r="F7" t="n">
         <v>50</v>
       </c>
-      <c r="G7" t="n">
-        <v>50</v>
-      </c>
-      <c r="H7" t="n">
-        <v>50</v>
-      </c>
-      <c r="I7" t="n">
-        <v>50</v>
-      </c>
-      <c r="J7" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -691,18 +599,6 @@
       <c r="F8" t="n">
         <v>50</v>
       </c>
-      <c r="G8" t="n">
-        <v>50</v>
-      </c>
-      <c r="H8" t="n">
-        <v>50</v>
-      </c>
-      <c r="I8" t="n">
-        <v>50</v>
-      </c>
-      <c r="J8" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,18 +619,6 @@
       <c r="F9" t="n">
         <v>50</v>
       </c>
-      <c r="G9" t="n">
-        <v>50</v>
-      </c>
-      <c r="H9" t="n">
-        <v>50</v>
-      </c>
-      <c r="I9" t="n">
-        <v>50</v>
-      </c>
-      <c r="J9" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -755,18 +639,6 @@
       <c r="F10" t="n">
         <v>50</v>
       </c>
-      <c r="G10" t="n">
-        <v>50</v>
-      </c>
-      <c r="H10" t="n">
-        <v>50</v>
-      </c>
-      <c r="I10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J10" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -787,18 +659,6 @@
       <c r="F11" t="n">
         <v>50</v>
       </c>
-      <c r="G11" t="n">
-        <v>50</v>
-      </c>
-      <c r="H11" t="n">
-        <v>50</v>
-      </c>
-      <c r="I11" t="n">
-        <v>50</v>
-      </c>
-      <c r="J11" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -819,18 +679,6 @@
       <c r="F12" t="n">
         <v>50</v>
       </c>
-      <c r="G12" t="n">
-        <v>50</v>
-      </c>
-      <c r="H12" t="n">
-        <v>49</v>
-      </c>
-      <c r="I12" t="n">
-        <v>50</v>
-      </c>
-      <c r="J12" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -851,18 +699,6 @@
       <c r="F13" t="n">
         <v>50</v>
       </c>
-      <c r="G13" t="n">
-        <v>50</v>
-      </c>
-      <c r="H13" t="n">
-        <v>49</v>
-      </c>
-      <c r="I13" t="n">
-        <v>50</v>
-      </c>
-      <c r="J13" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -872,27 +708,15 @@
         <v>45</v>
       </c>
       <c r="C14" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" t="n">
         <v>48</v>
       </c>
       <c r="E14" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" t="n">
-        <v>48</v>
-      </c>
-      <c r="G14" t="n">
-        <v>48</v>
-      </c>
-      <c r="H14" t="n">
-        <v>47</v>
-      </c>
-      <c r="I14" t="n">
-        <v>47</v>
-      </c>
-      <c r="J14" t="n">
         <v>47</v>
       </c>
     </row>
@@ -904,27 +728,15 @@
         <v>42</v>
       </c>
       <c r="C15" t="n">
+        <v>45</v>
+      </c>
+      <c r="D15" t="n">
         <v>46</v>
       </c>
-      <c r="D15" t="n">
-        <v>47</v>
-      </c>
       <c r="E15" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" t="n">
-        <v>46</v>
-      </c>
-      <c r="G15" t="n">
-        <v>44</v>
-      </c>
-      <c r="H15" t="n">
-        <v>45</v>
-      </c>
-      <c r="I15" t="n">
-        <v>42</v>
-      </c>
-      <c r="J15" t="n">
         <v>42</v>
       </c>
     </row>
@@ -939,24 +751,12 @@
         <v>41</v>
       </c>
       <c r="D16" t="n">
+        <v>40</v>
+      </c>
+      <c r="E16" t="n">
         <v>41</v>
       </c>
-      <c r="E16" t="n">
-        <v>40</v>
-      </c>
       <c r="F16" t="n">
-        <v>40</v>
-      </c>
-      <c r="G16" t="n">
-        <v>41</v>
-      </c>
-      <c r="H16" t="n">
-        <v>41</v>
-      </c>
-      <c r="I16" t="n">
-        <v>39</v>
-      </c>
-      <c r="J16" t="n">
         <v>39</v>
       </c>
     </row>
@@ -968,27 +768,15 @@
         <v>26</v>
       </c>
       <c r="C17" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>39</v>
-      </c>
-      <c r="G17" t="n">
-        <v>33</v>
-      </c>
-      <c r="H17" t="n">
-        <v>33</v>
-      </c>
-      <c r="I17" t="n">
-        <v>30</v>
-      </c>
-      <c r="J17" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1000,27 +788,15 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
         <v>29</v>
       </c>
       <c r="E18" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F18" t="n">
-        <v>29</v>
-      </c>
-      <c r="G18" t="n">
-        <v>20</v>
-      </c>
-      <c r="H18" t="n">
-        <v>25</v>
-      </c>
-      <c r="I18" t="n">
-        <v>23</v>
-      </c>
-      <c r="J18" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1032,27 +808,15 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
-      </c>
-      <c r="G19" t="n">
-        <v>11</v>
-      </c>
-      <c r="H19" t="n">
-        <v>12</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12</v>
-      </c>
-      <c r="J19" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1064,27 +828,15 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
-      </c>
-      <c r="G20" t="n">
-        <v>8</v>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7</v>
-      </c>
-      <c r="J20" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1099,24 +851,12 @@
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
         <v>2</v>
       </c>
     </row>
